--- a/DA_QL_DEP/file/NhanVienImport.xlsx
+++ b/DA_QL_DEP/file/NhanVienImport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Mã người dùng</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>Chức vụ</t>
-  </si>
-  <si>
-    <t>quanglv123@gmail.com</t>
-  </si>
-  <si>
-    <t>0123456789</t>
   </si>
   <si>
     <t>Nữ</t>
@@ -454,7 +448,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,84 +510,84 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>36924</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>923456789</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
         <v>34700</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
